--- a/dataset_guide.xlsx
+++ b/dataset_guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwinpadmanabhan/Desktop/Spring2020/CGDVColumbia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE37CDC3-AB62-BF43-8A4E-63AB537439E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F587F23D-1A51-3042-80A0-6BDFDCD0EC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details of people affected in Venezuela. </t>
   </si>
   <si>
     <t>Details/Columns</t>
@@ -144,6 +141,90 @@
   </si>
   <si>
     <t xml:space="preserve">Potentially delete one of the two. Earlier years do not have thoroughly tabulated data. </t>
+  </si>
+  <si>
+    <t>asylum_seekers_in_columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details/Status of people who applied for asylum IN Columbia, FROM other countries. </t>
+  </si>
+  <si>
+    <t>resettlement_in_columbia</t>
+  </si>
+  <si>
+    <t>Number of refugee who went back to Colombia by year and country</t>
+  </si>
+  <si>
+    <t>Country of Asylum, Country of Origin, year, #people resettled,  between 1983-2018</t>
+  </si>
+  <si>
+    <t>demographics_in_colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details of people affected in Venezuela (country of asylum). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details of people affected in Colombia(country of asylum). </t>
+  </si>
+  <si>
+    <t>Seems pretty useless, since most data points are characterized under "Unknown Age"</t>
+  </si>
+  <si>
+    <t>asylumseeker_from_colombia</t>
+  </si>
+  <si>
+    <t>resettlement_from_columbia</t>
+  </si>
+  <si>
+    <t>people_concern_from_colombia</t>
+  </si>
+  <si>
+    <t>Year, Country of asylum, Type of Asylum (refugee, asylum seeker, returned refugee, among others), #people, between 1981-2018</t>
+  </si>
+  <si>
+    <t>asylumseeker_from_colombia_2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Suspected - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asylum applications to different countries from Colombia, excluding repeat requests, and appealed applications</t>
+    </r>
+  </si>
+  <si>
+    <t>people_concern_in_colombia</t>
+  </si>
+  <si>
+    <t>Number of refugee (people of concern) originating from Colombia to other countries</t>
+  </si>
+  <si>
+    <t>Number of refugee (people of concern) in Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year, Country of origin,  #people of concern, between 1970- 2018 </t>
+  </si>
+  <si>
+    <t>people_concern_in_colombia_2</t>
+  </si>
+  <si>
+    <t>Potentially delete one of the two.</t>
+  </si>
+  <si>
+    <t>people_concern_in_colombia_3</t>
+  </si>
+  <si>
+    <t>People of concern from Colombia by type of PoC and year</t>
+  </si>
+  <si>
+    <t>Origin/Country of residence/type of PoC/years (2000-2013)</t>
   </si>
 </sst>
 </file>
@@ -533,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB9F27-1A46-5543-A201-2FF48383AFF6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -564,110 +645,217 @@
     <row r="2" spans="1:4" s="1" customFormat="1" ht="25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_guide.xlsx
+++ b/dataset_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwinpadmanabhan/Desktop/Spring2020/CGDVColumbia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F587F23D-1A51-3042-80A0-6BDFDCD0EC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D0D40-AACF-1348-AAA6-42A60A17AA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -226,12 +226,27 @@
   <si>
     <t>Origin/Country of residence/type of PoC/years (2000-2013)</t>
   </si>
+  <si>
+    <t>us_funding_to_colombia</t>
+  </si>
+  <si>
+    <t>us_funding_to_venezuela</t>
+  </si>
+  <si>
+    <t>Dates starting 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA funding for different purposes in Colombia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA funding for different purposes in Venezuela. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +278,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,18 +313,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB9F27-1A46-5543-A201-2FF48383AFF6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -858,6 +884,31 @@
         <v>55</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset_guide.xlsx
+++ b/dataset_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwinpadmanabhan/Desktop/Spring2020/CGDVColumbia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2522A21-8B51-3749-8D4C-BDCE35C70653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6F9CA-0B07-E348-B66A-965F90909090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>Origin/Country of residence/type of PoC/years (2000-2013)</t>
+  </si>
+  <si>
+    <t>us_funding_to_colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA funding for different purposes in Colombia. </t>
+  </si>
+  <si>
+    <t>Dates starting 2012</t>
+  </si>
+  <si>
+    <t>us_funding_to_venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA funding for different purposes in Venezuela. </t>
   </si>
 </sst>
 </file>
@@ -869,6 +884,28 @@
         <v>55</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>

--- a/dataset_guide.xlsx
+++ b/dataset_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashwinpadmanabhan/Desktop/Spring2020/CGDVColumbia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6F9CA-0B07-E348-B66A-965F90909090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1C142-528A-3F40-8AF8-0DD2FF993A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{A3043AC2-39D2-5142-9FDE-AFEC1FD86C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -241,12 +241,30 @@
   <si>
     <t xml:space="preserve">USA funding for different purposes in Venezuela. </t>
   </si>
+  <si>
+    <t>countru_stat_venezuela</t>
+  </si>
+  <si>
+    <t>country_stat_colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World bank data for country metrics for Colombia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World bank data for country metrics for Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diverse metrics, ranging from population, GDP, rural population, exports </t>
+  </si>
+  <si>
+    <t>Year, Location within Colomobia, Gender, Age distribution, between 2005 and 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,14 +296,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,21 +323,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,7 +650,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -906,8 +913,27 @@
         <v>58</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
